--- a/data/trans_orig/P21D2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D2_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9CED3E0-DB46-4789-82B3-A14EB2A52B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28F5B36E-383F-4B6D-8176-005EFDE086EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BB3FBA52-AA79-4AE8-85BA-B5FB42E4B65A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CC0F7448-6976-49B6-8A22-A3D2B66DB618}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="221">
-  <si>
-    <t>Población que, necesitandolo, no pudo recibir atención dental en 2023 (Tasa respuesta: 43,85%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="217">
+  <si>
+    <t>Población que, necesitándolo, no pudo recibir atención dental en 2023 (Tasa respuesta: 43,85%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>45,23%</t>
   </si>
   <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
   </si>
   <si>
     <t>37,16%</t>
   </si>
   <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
   </si>
   <si>
     <t>41,39%</t>
   </si>
   <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -104,28 +104,28 @@
     <t>54,47%</t>
   </si>
   <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
   </si>
   <si>
     <t>60,3%</t>
   </si>
   <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
   </si>
   <si>
     <t>57,25%</t>
   </si>
   <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -143,13 +143,13 @@
     <t>0,87%</t>
   </si>
   <si>
-    <t>3,7%</t>
+    <t>4,42%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>2,22%</t>
+    <t>2,54%</t>
   </si>
   <si>
     <t>No lo pudo recibir por motivos económicos</t>
@@ -158,22 +158,22 @@
     <t>0,3%</t>
   </si>
   <si>
-    <t>1,41%</t>
+    <t>1,46%</t>
   </si>
   <si>
     <t>1,67%</t>
   </si>
   <si>
-    <t>5,42%</t>
+    <t>5,84%</t>
   </si>
   <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
   </si>
   <si>
     <t>100%</t>
@@ -185,517 +185,505 @@
     <t>43,32%</t>
   </si>
   <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
   </si>
   <si>
     <t>44,76%</t>
   </si>
   <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
   </si>
   <si>
     <t>44,12%</t>
   </si>
   <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
   </si>
   <si>
     <t>52,9%</t>
   </si>
   <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
   </si>
   <si>
     <t>51,8%</t>
   </si>
   <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
   </si>
   <si>
     <t>52,29%</t>
   </si>
   <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
   </si>
   <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>2,27%</t>
+    <t>2,14%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
+    <t>1,51%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
   </si>
   <si>
     <t>3,15%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
+    <t>5,81%</t>
   </si>
   <si>
     <t>2,85%</t>
   </si>
   <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
     <t>1,55%</t>
   </si>
   <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
   </si>
   <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
+    <t>8,91%</t>
   </si>
   <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
+    <t>5,63%</t>
   </si>
   <si>
     <t>41,28%</t>
   </si>
   <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
   </si>
   <si>
     <t>39,52%</t>
   </si>
   <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
   </si>
   <si>
     <t>40,36%</t>
   </si>
   <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
   </si>
   <si>
     <t>56,16%</t>
   </si>
   <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
   </si>
   <si>
     <t>56,91%</t>
   </si>
   <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
   </si>
   <si>
     <t>56,55%</t>
   </si>
   <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>1,88%</t>
+    <t>1,84%</t>
   </si>
   <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
+    <t>1,92%</t>
   </si>
   <si>
     <t>1,03%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
   </si>
   <si>
     <t>2,4%</t>
   </si>
   <si>
-    <t>4,14%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
   </si>
   <si>
     <t>2,05%</t>
   </si>
   <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
+    <t>2,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1110,7 +1098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3822F7B0-26BD-4899-A686-62870651C7A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED84E61-529D-4D42-B0F7-AD43D3354993}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1611,10 +1599,10 @@
         <v>68</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -1623,13 +1611,13 @@
         <v>2938</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1644,13 +1632,13 @@
         <v>6888</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H12" s="7">
         <v>11</v>
@@ -1659,13 +1647,13 @@
         <v>7738</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M12" s="7">
         <v>21</v>
@@ -1674,13 +1662,13 @@
         <v>14626</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1736,7 +1724,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1748,13 +1736,13 @@
         <v>237681</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H14" s="7">
         <v>319</v>
@@ -1763,13 +1751,13 @@
         <v>221784</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="M14" s="7">
         <v>555</v>
@@ -1856,7 +1844,7 @@
         <v>101</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -1865,13 +1853,13 @@
         <v>5730</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -2140,10 +2128,10 @@
         <v>142</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2158,13 +2146,13 @@
         <v>10009</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -2173,10 +2161,10 @@
         <v>5171</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>148</v>
@@ -2448,10 +2436,10 @@
         <v>184</v>
       </c>
       <c r="P27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2519,13 +2507,13 @@
         <v>626909</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H29" s="7">
         <v>941</v>
@@ -2534,13 +2522,13 @@
         <v>665022</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M29" s="7">
         <v>1603</v>
@@ -2549,13 +2537,13 @@
         <v>1291931</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2570,13 +2558,13 @@
         <v>852856</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H30" s="7">
         <v>1350</v>
@@ -2585,13 +2573,13 @@
         <v>957593</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M30" s="7">
         <v>2102</v>
@@ -2600,13 +2588,13 @@
         <v>1810449</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2621,13 +2609,13 @@
         <v>13375</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H31" s="7">
         <v>27</v>
@@ -2636,13 +2624,13 @@
         <v>19731</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M31" s="7">
         <v>39</v>
@@ -2651,13 +2639,13 @@
         <v>33106</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>212</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2675,10 +2663,10 @@
         <v>41</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H32" s="7">
         <v>56</v>
@@ -2687,13 +2675,13 @@
         <v>40368</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>70</v>
+        <v>212</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M32" s="7">
         <v>90</v>
@@ -2702,13 +2690,13 @@
         <v>65759</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>218</v>
+        <v>145</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2764,7 +2752,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D2_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28F5B36E-383F-4B6D-8176-005EFDE086EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED4D6FA5-9E06-4FCA-ACF8-BE1B3BDE64B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CC0F7448-6976-49B6-8A22-A3D2B66DB618}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{827172B4-5DAA-420F-8CD4-ADD4632C70A8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No lo ha necesitado</t>
@@ -179,7 +179,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>43,32%</t>
@@ -281,7 +281,7 @@
     <t>4,53%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>48,84%</t>
@@ -389,7 +389,7 @@
     <t>1,99%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>22,83%</t>
@@ -1098,7 +1098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED84E61-529D-4D42-B0F7-AD43D3354993}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20B6CB7-F8AA-4AEF-AEF4-FEEED7887AED}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D2_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED4D6FA5-9E06-4FCA-ACF8-BE1B3BDE64B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95F4C763-135B-4CB5-95BB-B216F56B76FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{827172B4-5DAA-420F-8CD4-ADD4632C70A8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{724B65D0-715A-47DE-A473-D65CED1DC4AE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="221">
   <si>
     <t>Población que, necesitándolo, no pudo recibir atención dental en 2023 (Tasa respuesta: 43,85%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>45,23%</t>
   </si>
   <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
   </si>
   <si>
     <t>37,16%</t>
   </si>
   <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
   </si>
   <si>
     <t>41,39%</t>
   </si>
   <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -104,28 +104,28 @@
     <t>54,47%</t>
   </si>
   <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
   </si>
   <si>
     <t>60,3%</t>
   </si>
   <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
   </si>
   <si>
     <t>57,25%</t>
   </si>
   <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -143,13 +143,13 @@
     <t>0,87%</t>
   </si>
   <si>
-    <t>4,42%</t>
+    <t>3,7%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>2,54%</t>
+    <t>2,22%</t>
   </si>
   <si>
     <t>No lo pudo recibir por motivos económicos</t>
@@ -158,532 +158,544 @@
     <t>0,3%</t>
   </si>
   <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
   </si>
   <si>
     <t>38,99%</t>
   </si>
   <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
   </si>
   <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
   </si>
   <si>
     <t>2,44%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
     <t>2,4%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
+    <t>4,14%</t>
   </si>
   <si>
     <t>2,05%</t>
   </si>
   <si>
-    <t>2,95%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1098,7 +1110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20B6CB7-F8AA-4AEF-AEF4-FEEED7887AED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{730C7011-2E6E-4547-964C-FAEE600A0044}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1599,10 +1611,10 @@
         <v>68</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -1611,13 +1623,13 @@
         <v>2938</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1632,13 +1644,13 @@
         <v>6888</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H12" s="7">
         <v>11</v>
@@ -1647,13 +1659,13 @@
         <v>7738</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M12" s="7">
         <v>21</v>
@@ -1662,13 +1674,13 @@
         <v>14626</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1724,7 +1736,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1736,13 +1748,13 @@
         <v>237681</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H14" s="7">
         <v>319</v>
@@ -1751,13 +1763,13 @@
         <v>221784</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="M14" s="7">
         <v>555</v>
@@ -1844,7 +1856,7 @@
         <v>101</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -1853,13 +1865,13 @@
         <v>5730</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -2128,10 +2140,10 @@
         <v>142</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2146,13 +2158,13 @@
         <v>10009</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -2161,10 +2173,10 @@
         <v>5171</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>148</v>
@@ -2436,10 +2448,10 @@
         <v>184</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2507,13 +2519,13 @@
         <v>626909</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H29" s="7">
         <v>941</v>
@@ -2522,13 +2534,13 @@
         <v>665022</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M29" s="7">
         <v>1603</v>
@@ -2537,13 +2549,13 @@
         <v>1291931</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2558,13 +2570,13 @@
         <v>852856</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H30" s="7">
         <v>1350</v>
@@ -2573,13 +2585,13 @@
         <v>957593</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M30" s="7">
         <v>2102</v>
@@ -2588,13 +2600,13 @@
         <v>1810449</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2609,13 +2621,13 @@
         <v>13375</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H31" s="7">
         <v>27</v>
@@ -2624,13 +2636,13 @@
         <v>19731</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M31" s="7">
         <v>39</v>
@@ -2639,13 +2651,13 @@
         <v>33106</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>115</v>
+        <v>211</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>140</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2663,10 +2675,10 @@
         <v>41</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H32" s="7">
         <v>56</v>
@@ -2675,13 +2687,13 @@
         <v>40368</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>212</v>
+        <v>70</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M32" s="7">
         <v>90</v>
@@ -2690,13 +2702,13 @@
         <v>65759</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>145</v>
+        <v>218</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2752,7 +2764,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D2_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95F4C763-135B-4CB5-95BB-B216F56B76FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75435EBA-6E4A-4038-856B-0F734EA78294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{724B65D0-715A-47DE-A473-D65CED1DC4AE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{14474D41-30A3-42DF-8844-4E42FC73058B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="187">
   <si>
     <t>Población que, necesitándolo, no pudo recibir atención dental en 2023 (Tasa respuesta: 43,85%)</t>
   </si>
@@ -65,637 +65,535 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>No lo ha necesitado</t>
   </si>
   <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
   </si>
   <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
   </si>
   <si>
+    <t>0,48%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
   </si>
   <si>
     <t>No lo pudo recibir por motivos económicos</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
   </si>
   <si>
     <t>57,32%</t>
   </si>
   <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
   </si>
   <si>
     <t>1,03%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
   </si>
   <si>
     <t>1,6%</t>
   </si>
   <si>
-    <t>2,94%</t>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1110,8 +1008,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{730C7011-2E6E-4547-964C-FAEE600A0044}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00FB13D-2166-4D49-ABBE-2ABCEA5B573E}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1228,10 +1126,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="D4" s="7">
-        <v>24150</v>
+        <v>112217</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1243,10 +1141,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>37</v>
+        <v>233</v>
       </c>
       <c r="I4" s="7">
-        <v>18031</v>
+        <v>127458</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1258,172 +1156,172 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>68</v>
+        <v>376</v>
       </c>
       <c r="N4" s="7">
-        <v>42181</v>
+        <v>239675</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7">
+        <v>138</v>
+      </c>
+      <c r="D5" s="7">
+        <v>146259</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="7">
+        <v>265</v>
+      </c>
+      <c r="I5" s="7">
+        <v>161291</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="7">
+        <v>403</v>
+      </c>
+      <c r="N5" s="7">
+        <v>307550</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="D5" s="7">
-        <v>29084</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>50</v>
-      </c>
-      <c r="I5" s="7">
-        <v>29261</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>78</v>
-      </c>
-      <c r="N5" s="7">
-        <v>58344</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1278</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>4</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1939</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>422</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>35</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N6" s="7">
-        <v>422</v>
+        <v>3217</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>160</v>
+        <v>6844</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I7" s="7">
-        <v>808</v>
+        <v>8441</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="N7" s="7">
-        <v>968</v>
+        <v>15286</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1432,255 +1330,255 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>60</v>
+        <v>294</v>
       </c>
       <c r="D8" s="7">
-        <v>53394</v>
+        <v>266599</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
-        <v>90</v>
+        <v>515</v>
       </c>
       <c r="I8" s="7">
-        <v>48522</v>
+        <v>299129</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
-        <v>150</v>
+        <v>809</v>
       </c>
       <c r="N8" s="7">
-        <v>101915</v>
+        <v>565727</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>112</v>
+        <v>236</v>
       </c>
       <c r="D9" s="7">
-        <v>94668</v>
+        <v>220636</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>196</v>
+        <v>319</v>
       </c>
       <c r="I9" s="7">
-        <v>121408</v>
+        <v>194958</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
-        <v>308</v>
+        <v>555</v>
       </c>
       <c r="N9" s="7">
-        <v>216076</v>
+        <v>415594</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7">
-        <v>110</v>
+        <v>181</v>
       </c>
       <c r="D10" s="7">
-        <v>115595</v>
+        <v>428646</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>215</v>
+        <v>365</v>
       </c>
       <c r="I10" s="7">
-        <v>140511</v>
+        <v>240970</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>325</v>
+        <v>546</v>
       </c>
       <c r="N10" s="7">
-        <v>256106</v>
+        <v>669616</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>1358</v>
+        <v>3716</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I11" s="7">
-        <v>1579</v>
+        <v>5052</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M11" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N11" s="7">
-        <v>2938</v>
+        <v>8768</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>6888</v>
+        <v>5391</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H12" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I12" s="7">
-        <v>7738</v>
+        <v>6375</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M12" s="7">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N12" s="7">
-        <v>14626</v>
+        <v>11766</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1689,255 +1587,255 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>234</v>
+        <v>426</v>
       </c>
       <c r="D13" s="7">
-        <v>218509</v>
+        <v>658389</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
-        <v>425</v>
+        <v>705</v>
       </c>
       <c r="I13" s="7">
-        <v>271237</v>
+        <v>447355</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
-        <v>659</v>
+        <v>1131</v>
       </c>
       <c r="N13" s="7">
-        <v>489746</v>
+        <v>1105744</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>236</v>
+        <v>83</v>
       </c>
       <c r="D14" s="7">
-        <v>237681</v>
+        <v>73069</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
-        <v>319</v>
+        <v>134</v>
       </c>
       <c r="I14" s="7">
-        <v>221784</v>
+        <v>89036</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
-        <v>555</v>
+        <v>217</v>
       </c>
       <c r="N14" s="7">
-        <v>459465</v>
+        <v>162105</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="7">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="D15" s="7">
-        <v>240056</v>
+        <v>240406</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H15" s="7">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="I15" s="7">
-        <v>262958</v>
+        <v>223447</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M15" s="7">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="N15" s="7">
-        <v>503014</v>
+        <v>463853</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7">
         <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>3892</v>
+        <v>7182</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="H16" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I16" s="7">
-        <v>5730</v>
+        <v>11978</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M16" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N16" s="7">
-        <v>9623</v>
+        <v>19160</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D17" s="7">
-        <v>5051</v>
+        <v>10181</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
       </c>
       <c r="I17" s="7">
-        <v>6829</v>
+        <v>4929</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M17" s="7">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N17" s="7">
-        <v>11880</v>
+        <v>15110</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1946,255 +1844,255 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>426</v>
+        <v>314</v>
       </c>
       <c r="D18" s="7">
-        <v>486680</v>
+        <v>330838</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
-        <v>705</v>
+        <v>489</v>
       </c>
       <c r="I18" s="7">
-        <v>497302</v>
+        <v>329390</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
-        <v>1131</v>
+        <v>803</v>
       </c>
       <c r="N18" s="7">
-        <v>983982</v>
+        <v>660227</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="D19" s="7">
-        <v>76734</v>
+        <v>181749</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H19" s="7">
-        <v>134</v>
+        <v>255</v>
       </c>
       <c r="I19" s="7">
-        <v>99092</v>
+        <v>238480</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M19" s="7">
-        <v>217</v>
+        <v>455</v>
       </c>
       <c r="N19" s="7">
-        <v>175826</v>
+        <v>420229</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D20" s="7">
-        <v>242295</v>
+        <v>221956</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
-        <v>330</v>
+        <v>390</v>
       </c>
       <c r="I20" s="7">
-        <v>240250</v>
+        <v>259774</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
-        <v>543</v>
+        <v>610</v>
       </c>
       <c r="N20" s="7">
-        <v>482545</v>
+        <v>481730</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" s="7">
-        <v>7088</v>
+        <v>1177</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H21" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I21" s="7">
-        <v>10507</v>
+        <v>1340</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M21" s="7">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N21" s="7">
-        <v>17595</v>
+        <v>2517</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>10009</v>
+        <v>3071</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H22" s="7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I22" s="7">
-        <v>5171</v>
+        <v>16688</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M22" s="7">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N22" s="7">
-        <v>15181</v>
+        <v>19759</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2203,114 +2101,114 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>314</v>
+        <v>426</v>
       </c>
       <c r="D23" s="7">
-        <v>336127</v>
+        <v>407953</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
-        <v>489</v>
+        <v>665</v>
       </c>
       <c r="I23" s="7">
-        <v>355020</v>
+        <v>516283</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
-        <v>803</v>
+        <v>1091</v>
       </c>
       <c r="N23" s="7">
-        <v>691147</v>
+        <v>924235</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>200</v>
+        <v>662</v>
       </c>
       <c r="D24" s="7">
-        <v>193676</v>
+        <v>587671</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H24" s="7">
-        <v>255</v>
+        <v>941</v>
       </c>
       <c r="I24" s="7">
-        <v>204707</v>
+        <v>649931</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M24" s="7">
-        <v>455</v>
+        <v>1603</v>
       </c>
       <c r="N24" s="7">
-        <v>398382</v>
+        <v>1237602</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>161</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="7">
-        <v>220</v>
+        <v>752</v>
       </c>
       <c r="D25" s="7">
-        <v>225826</v>
+        <v>1037267</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>162</v>
@@ -2322,10 +2220,10 @@
         <v>164</v>
       </c>
       <c r="H25" s="7">
-        <v>390</v>
+        <v>1350</v>
       </c>
       <c r="I25" s="7">
-        <v>284613</v>
+        <v>885482</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>165</v>
@@ -2337,10 +2235,10 @@
         <v>167</v>
       </c>
       <c r="M25" s="7">
-        <v>610</v>
+        <v>2102</v>
       </c>
       <c r="N25" s="7">
-        <v>510439</v>
+        <v>1922749</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>168</v>
@@ -2355,43 +2253,43 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D26" s="7">
-        <v>1036</v>
+        <v>13353</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>171</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>31</v>
+        <v>172</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H26" s="7">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="I26" s="7">
-        <v>1492</v>
+        <v>20309</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>175</v>
       </c>
       <c r="M26" s="7">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="N26" s="7">
-        <v>2527</v>
+        <v>33662</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>176</v>
@@ -2406,31 +2304,31 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27" s="7">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="D27" s="7">
-        <v>3284</v>
+        <v>25487</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>179</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H27" s="7">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="I27" s="7">
-        <v>19821</v>
+        <v>36433</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>182</v>
@@ -2439,10 +2337,10 @@
         <v>183</v>
       </c>
       <c r="M27" s="7">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="N27" s="7">
-        <v>23105</v>
+        <v>61921</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>184</v>
@@ -2451,7 +2349,7 @@
         <v>185</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>186</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2460,319 +2358,61 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>426</v>
+        <v>1460</v>
       </c>
       <c r="D28" s="7">
-        <v>423821</v>
+        <v>1663778</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
-        <v>665</v>
+        <v>2374</v>
       </c>
       <c r="I28" s="7">
-        <v>510633</v>
+        <v>1592156</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M28" s="7">
-        <v>1091</v>
+        <v>3834</v>
       </c>
       <c r="N28" s="7">
-        <v>934454</v>
+        <v>3255934</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>662</v>
-      </c>
-      <c r="D29" s="7">
-        <v>626909</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H29" s="7">
-        <v>941</v>
-      </c>
-      <c r="I29" s="7">
-        <v>665022</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="M29" s="7">
-        <v>1603</v>
-      </c>
-      <c r="N29" s="7">
-        <v>1291931</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="7">
-        <v>752</v>
-      </c>
-      <c r="D30" s="7">
-        <v>852856</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="H30" s="7">
-        <v>1350</v>
-      </c>
-      <c r="I30" s="7">
-        <v>957593</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="M30" s="7">
-        <v>2102</v>
-      </c>
-      <c r="N30" s="7">
-        <v>1810449</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="7">
-        <v>12</v>
-      </c>
-      <c r="D31" s="7">
-        <v>13375</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H31" s="7">
-        <v>27</v>
-      </c>
-      <c r="I31" s="7">
-        <v>19731</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M31" s="7">
-        <v>39</v>
-      </c>
-      <c r="N31" s="7">
-        <v>33106</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="7">
-        <v>34</v>
-      </c>
-      <c r="D32" s="7">
-        <v>25391</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H32" s="7">
-        <v>56</v>
-      </c>
-      <c r="I32" s="7">
-        <v>40368</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="M32" s="7">
-        <v>90</v>
-      </c>
-      <c r="N32" s="7">
-        <v>65759</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>1460</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1518531</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" s="7">
-        <v>2374</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1682713</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M33" s="7">
-        <v>3834</v>
-      </c>
-      <c r="N33" s="7">
-        <v>3201244</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>220</v>
+      <c r="A29" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
